--- a/MySQL/15-主从复制.xlsx
+++ b/MySQL/15-主从复制.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
   <si>
     <t>主从复制原理：</t>
   </si>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>主从复制-冷备份：</t>
     </r>
     <r>
@@ -60,6 +68,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">    解决冷备份过程中，数据被修改导致数据不一致问题：</t>
     </r>
     <r>
@@ -82,6 +98,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MySQL_bin目录</t>
     </r>
     <r>
@@ -186,6 +210,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -315,6 +347,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>mysql -f -u</t>
     </r>
     <r>
@@ -345,6 +385,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>建议使用</t>
     </r>
     <r>
@@ -376,6 +424,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">mydumper -h </t>
     </r>
     <r>
@@ -491,6 +547,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">mydumper -h </t>
     </r>
     <r>
@@ -628,6 +692,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">myloader -h </t>
     </r>
     <r>
@@ -743,6 +815,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">myloader -h </t>
     </r>
     <r>
@@ -1023,19 +1103,6 @@
     <t>-v, --verbose                     输出模式, 0 = silent, 1 = errors, 2 = warnings, 3 = info, 默认为2</t>
   </si>
   <si>
-    <r>
-      <t>主从复制-热备份：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>借助第三方工具</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -1045,7 +1112,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> xtrabackup【注意版本，否则可能无法备份】=&gt;</t>
+      <t>主从复制-热备份：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>借助第三方工具</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xtrabackup【注意版本，否则可能无法使用】=&gt;</t>
     </r>
   </si>
   <si>
@@ -1053,6 +1141,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">2.yum install -y </t>
     </r>
     <r>
@@ -1072,6 +1168,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>全库备份：xtrabackup --defaults-file=</t>
     </r>
     <r>
@@ -1165,6 +1269,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>备份指定数据库：xtrabackup --defaults-file=</t>
     </r>
     <r>
@@ -1290,6 +1402,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>innobackupex --defaults-file=</t>
     </r>
     <r>
@@ -1353,6 +1473,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1468,6 +1596,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -1506,6 +1642,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.</t>
     </r>
     <r>
@@ -1607,6 +1751,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -1634,6 +1786,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5.</t>
     </r>
     <r>
@@ -1661,6 +1821,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6.</t>
     </r>
     <r>
@@ -1743,6 +1911,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.</t>
     </r>
     <r>
@@ -1781,6 +1957,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8.</t>
     </r>
     <r>
@@ -1798,6 +1982,28 @@
       <rPr>
         <b/>
         <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改server_id，开启中继日志</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1808,6 +2014,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9.</t>
     </r>
     <r>
@@ -1920,6 +2134,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>10.</t>
     </r>
     <r>
@@ -2068,6 +2290,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">       给新创建的用户权限：grant </t>
     </r>
     <r>
@@ -2194,6 +2424,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">       给新创建的用户权限：grant </t>
     </r>
     <r>
@@ -2288,6 +2526,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>指定数据库的所有表权限：</t>
     </r>
     <r>
@@ -2333,6 +2579,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>11.</t>
     </r>
     <r>
@@ -2370,6 +2624,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>12.</t>
     </r>
     <r>
@@ -2391,7 +2653,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>修改配置文件【主从同步时 忽略的数据库】</t>
+      <t>修改配置文件【(可选)主从同步时 忽略的数据库】</t>
     </r>
     <r>
       <rPr>
@@ -2407,6 +2669,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>13.</t>
     </r>
     <r>
@@ -2444,6 +2714,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>13.</t>
     </r>
     <r>
@@ -2471,6 +2749,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>14.</t>
     </r>
     <r>
@@ -2609,6 +2895,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>15.</t>
     </r>
     <r>
@@ -2636,6 +2930,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>16.</t>
     </r>
     <r>
@@ -2663,6 +2965,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>①：停止主从复制：stop slave；【</t>
     </r>
     <r>
@@ -2692,7 +3002,1066 @@
     <t>②：查看Last_IO_Error失败原因并解决</t>
   </si>
   <si>
-    <t>③：再从第12步开始</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>③：再重新开启主从复制：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start slave;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>检查主从数据的一致性</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复一致性：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>借助第三方工具</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> percona-toolkit</t>
+    </r>
+  </si>
+  <si>
+    <t>1.官网 wget下载</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">主：检测MySQL主从数据一致性：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt-table-checksum --nocheck-replication-filters --no-check-binlog-format --replicate=check_data.checksums --databases=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">检查的数据库 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--tables=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">检查的表 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--user=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">账户 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--password=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+  </si>
+  <si>
+    <t>常用参数：</t>
+  </si>
+  <si>
+    <t>--nocheck-replication-filters</t>
+  </si>
+  <si>
+    <t>:不检查复制过滤器,建议启用。后面可以用--databases来指定需要检查的数据库。</t>
+  </si>
+  <si>
+    <t>--no-check-binlog-format</t>
+  </si>
+  <si>
+    <t>:不检查复制的binlog模式,要是binlog模式是ROW,则会报错。【建议启用】</t>
+  </si>
+  <si>
+    <t>--replicate-check-only</t>
+  </si>
+  <si>
+    <t>:只显示不同步的信息。</t>
+  </si>
+  <si>
+    <t>--replicate</t>
+  </si>
+  <si>
+    <t>:把checksum的信息写入到指定表中，建议直接写到被检查的数据库当中。</t>
+  </si>
+  <si>
+    <t>--databases</t>
+  </si>
+  <si>
+    <t>:指定需要被检查的数据库，多个则用逗号隔开。【不加检查所有库】</t>
+  </si>
+  <si>
+    <t>--tables</t>
+  </si>
+  <si>
+    <t>:指定需要被检查的表，多个用逗号隔开。【不加检查所有表】</t>
+  </si>
+  <si>
+    <t>--host | h</t>
+  </si>
+  <si>
+    <t>:Master的地址</t>
+  </si>
+  <si>
+    <t>--user | u</t>
+  </si>
+  <si>
+    <t>:用户名</t>
+  </si>
+  <si>
+    <t>--passwork | p</t>
+  </si>
+  <si>
+    <t>:密码</t>
+  </si>
+  <si>
+    <t>--Post | P</t>
+  </si>
+  <si>
+    <t>:端口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">主：恢复MySQL主从数据一致性：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt-table-sync --sync-to-master h=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从IP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,P=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3306</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,u=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,p=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --databases=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --tables=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --print  【不执行，只输出执行结果】
+pt-table-sync --sync-to-master h=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从IP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,P=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3306</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,u=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,p=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --databases=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --tables=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">表 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--execute</t>
+    </r>
+  </si>
+  <si>
+    <t>主：检测MySQL主从延迟：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>heartbeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> VARCHAR (26)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> UNSIGNED NOT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> KEY,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> VARCHAR (255)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DEFAULT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-- SHOW MASTER STATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> unsigned DEFAULT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -- SHOW MASTER STATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>relay_master_log_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>varchar(255)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DEFAULT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-- SHOW SLAVE STATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>exec_master_log_pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> unsigned DEFAULT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -- SHOW SLAVE STATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pt-heartbeat --ask-pass --cerate-table --user=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --databases </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --interval=1 --update --replace --daemonize </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【以守护进程方式运行，结果直接写入上面创建的表】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pt-heartbeat --monitor --user=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">账户 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--password=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --databases </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --maste-server-id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主库server_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【实时监控】</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2700,12 +4069,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2776,6 +4145,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA71D5D"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FFA71D5D"/>
+      <name val="ConsolasRegular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2791,15 +4188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2812,61 +4201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2880,11 +4217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2904,11 +4248,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2928,6 +4303,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FF7030A0"/>
       <name val="宋体"/>
@@ -2937,14 +4327,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2972,6 +4354,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2988,7 +4387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3000,7 +4399,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3012,49 +4429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,43 +4441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3120,13 +4471,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3138,31 +4531,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3275,40 +4674,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,6 +4703,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3339,17 +4729,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3362,157 +4746,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3537,21 +4936,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3576,27 +4966,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3609,7 +4984,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4137,10 +5530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:K124"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138:I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -4306,7 +5699,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4361,12 +5754,12 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4376,428 +5769,428 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:11">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" customHeight="1" spans="2:11">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="42" customHeight="1" spans="2:11">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="22"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" customHeight="1" spans="2:11">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="15" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" customHeight="1" spans="2:11">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="15" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" customHeight="1" spans="2:11">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="15" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" customHeight="1" spans="2:11">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="15" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
     </row>
     <row r="47" customHeight="1" spans="2:11">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="15" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
     </row>
     <row r="48" customHeight="1" spans="2:11">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="15" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49" customHeight="1" spans="2:11">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="15" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="17"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50" customHeight="1" spans="2:11">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="15" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" customHeight="1" spans="2:11">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="15" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" customHeight="1" spans="2:11">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="15" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" customHeight="1" spans="2:11">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="15" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" customHeight="1" spans="2:11">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="15" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
     </row>
     <row r="55" customHeight="1" spans="2:11">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="15" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
     </row>
     <row r="56" customHeight="1" spans="2:11">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="15" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
     </row>
     <row r="57" customHeight="1" spans="2:11">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="15" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" customHeight="1" spans="2:11">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="18" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
     </row>
     <row r="60" customHeight="1" spans="2:11">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="23"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="61" customHeight="1" spans="2:11">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="16" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="17"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" customHeight="1" spans="2:11">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="16" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
     </row>
     <row r="63" customHeight="1" spans="2:11">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="16" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" customHeight="1" spans="2:11">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="16" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="17"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" customHeight="1" spans="2:11">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="16" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="17"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" customHeight="1" spans="2:11">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="16" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="17"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
     </row>
     <row r="67" customHeight="1" spans="2:11">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="19" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="20"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="17"/>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1"/>
     <row r="69" customHeight="1" spans="1:12">
@@ -4831,17 +6224,17 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" customHeight="1" spans="2:2">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:2">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:2">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4851,12 +6244,12 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:2">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:2">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4866,111 +6259,99 @@
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:11">
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="82" customHeight="1" spans="1:11">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" customHeight="1" spans="1:11">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" customHeight="1" spans="2:2">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="2:2">
-      <c r="B85" s="8"/>
-    </row>
     <row r="86" customHeight="1" spans="2:2">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="2:2">
-      <c r="B87" s="8"/>
-    </row>
     <row r="88" customHeight="1" spans="2:2">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:2">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:2">
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:2">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="2:2">
-      <c r="B95" s="8"/>
-    </row>
     <row r="96" customHeight="1" spans="2:2">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:2">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="2:2">
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="2:2">
-      <c r="B101" s="8"/>
-    </row>
     <row r="102" customHeight="1" spans="2:2">
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:11">
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="4"/>
@@ -4984,7 +6365,7 @@
       <c r="K103" s="4"/>
     </row>
     <row r="104" customHeight="1" spans="2:11">
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C104" s="4"/>
@@ -4999,7 +6380,7 @@
     </row>
     <row r="105" customHeight="1" spans="2:11">
       <c r="B105" s="4"/>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5014,13 +6395,13 @@
       <c r="K105" s="4"/>
     </row>
     <row r="106" customHeight="1" spans="3:11">
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F106" s="4"/>
@@ -5031,7 +6412,7 @@
       <c r="K106" s="4"/>
     </row>
     <row r="107" customHeight="1" spans="3:11">
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -5047,7 +6428,7 @@
     </row>
     <row r="108" customHeight="1" spans="2:11">
       <c r="B108" s="4"/>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -5063,7 +6444,7 @@
     </row>
     <row r="109" customHeight="1" spans="2:11">
       <c r="B109" s="4"/>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -5079,7 +6460,7 @@
     </row>
     <row r="110" customHeight="1" spans="2:11">
       <c r="B110" s="4"/>
-      <c r="C110" s="28"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5090,7 +6471,7 @@
       <c r="K110" s="4"/>
     </row>
     <row r="111" customHeight="1" spans="2:11">
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C111" s="4"/>
@@ -5104,7 +6485,7 @@
       <c r="K111" s="4"/>
     </row>
     <row r="112" customHeight="1" spans="2:11">
-      <c r="B112" s="27"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5116,7 +6497,7 @@
       <c r="K112" s="4"/>
     </row>
     <row r="113" customHeight="1" spans="2:11">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C113" s="4"/>
@@ -5130,7 +6511,7 @@
       <c r="K113" s="4"/>
     </row>
     <row r="114" customHeight="1" spans="2:11">
-      <c r="B114" s="27"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5142,7 +6523,7 @@
       <c r="K114" s="4"/>
     </row>
     <row r="115" customHeight="1" spans="2:11">
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C115" s="4"/>
@@ -5156,43 +6537,43 @@
       <c r="K115" s="4"/>
     </row>
     <row r="118" customHeight="1" spans="2:2">
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:11">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
     </row>
     <row r="121" customHeight="1" spans="2:11">
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
     </row>
     <row r="122" customHeight="1" spans="2:2">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:2">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5200,43 +6581,277 @@
       <c r="C125" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
     </row>
     <row r="126" customHeight="1" spans="3:11">
       <c r="C126" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
     </row>
     <row r="127" customHeight="1" spans="3:11">
       <c r="C127" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:11">
+      <c r="A129" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:11">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" customHeight="1" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="2:11">
+      <c r="B134" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+    </row>
+    <row r="135" customHeight="1" spans="2:11">
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+    </row>
+    <row r="136" customHeight="1" spans="2:5">
+      <c r="B136" s="25"/>
+      <c r="C136" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="137" customHeight="1" spans="3:5">
+      <c r="C137" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="3:5">
+      <c r="C138" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="3:5">
+      <c r="C139" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="3:5">
+      <c r="C140" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="3:5">
+      <c r="C141" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="3:5">
+      <c r="C142" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="3:5">
+      <c r="C143" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="3:5">
+      <c r="C144" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="3:5">
+      <c r="C145" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="3:5">
+      <c r="C146" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:11">
+      <c r="B148" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+    </row>
+    <row r="149" customHeight="1" spans="2:11">
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+    </row>
+    <row r="151" customHeight="1" spans="2:11">
+      <c r="B151" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+    </row>
+    <row r="152" customHeight="1" spans="3:5">
+      <c r="C152" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+    </row>
+    <row r="153" customHeight="1" spans="3:5">
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+    </row>
+    <row r="154" customHeight="1" spans="3:5">
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+    </row>
+    <row r="155" customHeight="1" spans="3:5">
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+    </row>
+    <row r="156" customHeight="1" spans="3:5">
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+    </row>
+    <row r="157" customHeight="1" spans="3:5">
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+    </row>
+    <row r="158" customHeight="1" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="133">
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
@@ -5333,12 +6948,43 @@
     <mergeCell ref="C125:K125"/>
     <mergeCell ref="C126:K126"/>
     <mergeCell ref="C127:K127"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="B133:K133"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:I137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:I138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:I139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:I140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:I141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:I143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:I144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:I146"/>
+    <mergeCell ref="B151:K151"/>
+    <mergeCell ref="B158:K158"/>
+    <mergeCell ref="B160:K160"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A17:L18"/>
     <mergeCell ref="A69:L70"/>
     <mergeCell ref="A82:K83"/>
     <mergeCell ref="E106:K107"/>
     <mergeCell ref="B120:K121"/>
+    <mergeCell ref="A129:K130"/>
+    <mergeCell ref="B134:K135"/>
+    <mergeCell ref="B148:K149"/>
+    <mergeCell ref="C152:E157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
